--- a/Status.xlsx
+++ b/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jaya sri\A_Project_related\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jaya sri\A_Project_related\Daily status\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004C450-6128-4091-B452-FC0FD642D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B68F7-408B-403D-8603-C8E1B77FE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>3.Logo creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.sql sub queries practice with prasanna </t>
+  </si>
+  <si>
+    <t>2.basic sql queries practice with rahamathunissa</t>
+  </si>
+  <si>
+    <t>3.tableau software installed in thuskurunissa pc</t>
+  </si>
+  <si>
+    <t>4. logo creation</t>
   </si>
 </sst>
 </file>
@@ -104,16 +116,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,26 +434,26 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>45636</v>
       </c>
       <c r="B3" t="s">
@@ -455,7 +467,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -464,7 +476,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -472,12 +484,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jaya sri\A_Project_related\Daily status\Daily_Task_Status_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jaya sri\A_Project_related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B68F7-408B-403D-8603-C8E1B77FE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1DDEE-ACFE-497D-BED5-45232B036410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,16 +60,16 @@
     <t>3.Logo creation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.sql sub queries practice with prasanna </t>
-  </si>
-  <si>
-    <t>2.basic sql queries practice with rahamathunissa</t>
-  </si>
-  <si>
-    <t>3.tableau software installed in thuskurunissa pc</t>
-  </si>
-  <si>
-    <t>4. logo creation</t>
+    <t>2.explaining sql queries to rahamathunisa</t>
+  </si>
+  <si>
+    <t>3.tableau installed in thushkurunissa pc and explain basic graph</t>
+  </si>
+  <si>
+    <t>1.Sql sub queries  practice to prasanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. logo creation </t>
   </si>
 </sst>
 </file>
@@ -409,13 +409,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
@@ -489,7 +489,7 @@
         <v>45637</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -507,7 +507,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jaya sri\A_Project_related\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1DDEE-ACFE-497D-BED5-45232B036410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D633D27-DABE-4286-95CB-E5EF75211046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t xml:space="preserve">4. logo creation </t>
+  </si>
+  <si>
+    <t>1.Tableau (basic information) vedio</t>
+  </si>
+  <si>
+    <t>2.sql (data retrive,create table,add column) to bujji garu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.python basic checks </t>
+  </si>
+  <si>
+    <t>3.python(filters(equalto ,not equal to, and ,or,not,isin,notisin and multiple filter conditions),concat) to prasanna and bujji garu</t>
+  </si>
+  <si>
+    <t>1.Sql  Is null, is not null,distinct,group by,order by,min,max,avg,count,like(different conditions) to Rahamathunissa</t>
+  </si>
+  <si>
+    <t>2.sql (where,column rename,column delete,delete table ,drop table,insert vales into tables) to bujji garu</t>
+  </si>
+  <si>
+    <t>3.python  filters to shamshad garu</t>
+  </si>
+  <si>
+    <t>4. creating tableau skill set list</t>
   </si>
 </sst>
 </file>
@@ -117,14 +141,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="103.109375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
@@ -423,24 +447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -453,7 +477,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>45636</v>
       </c>
       <c r="B3" t="s">
@@ -467,7 +491,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -476,27 +500,27 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -505,7 +529,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -514,7 +538,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -522,8 +546,89 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45638</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45639</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily status\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D633D27-DABE-4286-95CB-E5EF75211046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D95F5-FBCF-4F61-AE7E-799C9D4AFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>4. creating tableau skill set list</t>
+  </si>
+  <si>
+    <t>1.Tableau product suit(developer tools )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.tableau skill set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.python(merge ,group by) to prasanna </t>
+  </si>
+  <si>
+    <t>3.Some modifications in standup</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>22</v>
@@ -625,15 +637,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45643</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily status\Daily_Task_Status_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D95F5-FBCF-4F61-AE7E-799C9D4AFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45867C2-65E2-4854-A07A-58B85C603349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>3.Some modifications in standup</t>
+  </si>
+  <si>
+    <t>login late tracker generation in tableau(sample file generation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet preparation for leave tracker </t>
+  </si>
+  <si>
+    <t>ppt documents(3 sheets) ,2 incomplete</t>
   </si>
 </sst>
 </file>
@@ -153,14 +162,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,24 +468,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +498,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>45636</v>
       </c>
       <c r="B3" t="s">
@@ -503,7 +512,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -512,7 +521,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -521,7 +530,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -532,7 +541,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -541,7 +550,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -550,7 +559,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -559,7 +568,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>45638</v>
       </c>
       <c r="B10" t="s">
@@ -573,7 +582,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -582,7 +591,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -591,7 +600,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -600,7 +609,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>45639</v>
       </c>
       <c r="B14" t="s">
@@ -611,7 +620,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -620,7 +629,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -629,7 +638,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -638,7 +647,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>45643</v>
       </c>
       <c r="B18" t="s">
@@ -652,7 +661,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -661,7 +670,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -670,7 +679,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -678,8 +687,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45644</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45867C2-65E2-4854-A07A-58B85C603349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FBD6E5-7D30-43D6-B153-B46BF8CFFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>ppt documents(3 sheets) ,2 incomplete</t>
+  </si>
+  <si>
+    <t>ppt documents sheets</t>
+  </si>
+  <si>
+    <t>login late tracker generation in tableau(two peoples)</t>
   </si>
 </sst>
 </file>
@@ -162,11 +168,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,21 +477,21 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +504,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45636</v>
       </c>
       <c r="B3" t="s">
@@ -512,7 +518,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -521,7 +527,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -530,7 +536,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -541,7 +547,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -550,7 +556,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -559,7 +565,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -568,7 +574,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>45638</v>
       </c>
       <c r="B10" t="s">
@@ -582,7 +588,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -591,7 +597,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -600,7 +606,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -609,7 +615,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>45639</v>
       </c>
       <c r="B14" t="s">
@@ -620,7 +626,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -629,7 +635,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -638,7 +644,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -647,7 +653,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>45643</v>
       </c>
       <c r="B18" t="s">
@@ -661,7 +667,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -670,7 +676,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -679,7 +685,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -688,7 +694,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>45644</v>
       </c>
       <c r="B22" t="s">
@@ -699,7 +705,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -708,7 +714,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -717,7 +723,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -725,8 +731,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45645</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A5"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FBD6E5-7D30-43D6-B153-B46BF8CFFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCFD27-7550-4C51-85CB-8A0BE6922C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1740" windowWidth="14592" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jayasri" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>login late tracker generation in tableau(two peoples)</t>
+  </si>
+  <si>
+    <t>Tableau reports generation(before login,after login,leave tracker)</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>tableau data correction and Tableau vedio</t>
+  </si>
+  <si>
+    <t>docker virtcual envirnovement creation</t>
+  </si>
+  <si>
+    <t>python explination to shamshad garu</t>
+  </si>
+  <si>
+    <t>tableau vedio watching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableau explination to team and tableau insatlled to pc no:6 </t>
   </si>
 </sst>
 </file>
@@ -162,12 +183,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,24 +498,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -504,7 +528,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>45636</v>
       </c>
       <c r="B3" t="s">
@@ -518,7 +542,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -527,7 +551,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -536,7 +560,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -547,7 +571,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -556,7 +580,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -565,7 +589,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -574,7 +598,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>45638</v>
       </c>
       <c r="B10" t="s">
@@ -588,7 +612,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -597,7 +621,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -606,7 +630,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -615,7 +639,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>45639</v>
       </c>
       <c r="B14" t="s">
@@ -626,7 +650,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -635,7 +659,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -644,7 +668,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -653,7 +677,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>45643</v>
       </c>
       <c r="B18" t="s">
@@ -667,7 +691,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -676,7 +700,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -685,7 +709,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -694,7 +718,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>45644</v>
       </c>
       <c r="B22" t="s">
@@ -705,7 +729,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -714,7 +738,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -723,7 +747,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -732,7 +756,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>45645</v>
       </c>
       <c r="B26" t="s">
@@ -743,7 +767,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -752,7 +776,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -761,7 +785,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -769,8 +793,83 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>45663</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="C1:E1"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCFD27-7550-4C51-85CB-8A0BE6922C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7102E846-7AE9-480D-A9B8-67DEA03CFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1740" windowWidth="14592" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jayasri" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">tableau explination to team and tableau insatlled to pc no:6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">power bi introduction and pie chat,bar chat,funnel chat,ribbon chat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableau  bar chart generation and colour,shapes option  </t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,6 +870,28 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45664</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45664</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7102E846-7AE9-480D-A9B8-67DEA03CFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391CD3B3-1AE9-4114-9A7F-3AC6B38E18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9732" yWindow="1368" windowWidth="13308" windowHeight="8004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jayasri" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t xml:space="preserve">tableau  bar chart generation and colour,shapes option  </t>
+  </si>
+  <si>
+    <t>tableau dashboard creation and add new shapes explanation to team</t>
+  </si>
+  <si>
+    <t>tableau data modeling, adding excel data, sample graph creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power bi skill set preparation </t>
   </si>
 </sst>
 </file>
@@ -487,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,6 +902,30 @@
       </c>
       <c r="E38" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45665</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45665</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45665</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391CD3B3-1AE9-4114-9A7F-3AC6B38E18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DD484-932F-48CF-84AF-13E81F0B7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9732" yWindow="1368" windowWidth="13308" windowHeight="8004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jayasri" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t xml:space="preserve">power bi skill set preparation </t>
+  </si>
+  <si>
+    <t>tabelau explination to team(worksheet filters,worksheet url actions,dashboard filters)</t>
+  </si>
+  <si>
+    <t>group discussion on(social media is good or bad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data modeling  and relationships in tableau  </t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,6 +920,9 @@
       <c r="B39" t="s">
         <v>41</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -919,6 +931,9 @@
       <c r="B40" t="s">
         <v>42</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -926,6 +941,48 @@
       </c>
       <c r="B41" t="s">
         <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DD484-932F-48CF-84AF-13E81F0B7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC39BE-5F5D-4B1D-BE05-F5C3BCAFC300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t xml:space="preserve">data modeling  and relationships in tableau  </t>
+  </si>
+  <si>
+    <t>tableau data blending.</t>
+  </si>
+  <si>
+    <t>difference between joins, unions, Relationships and blending in tableau.</t>
+  </si>
+  <si>
+    <t>Group discussion on online learning vs traditional learning.</t>
+  </si>
+  <si>
+    <t>power bi filters on visuals (video) -- completed</t>
+  </si>
+  <si>
+    <t>tableau dashboard filters and joins  explination to team members.</t>
   </si>
 </sst>
 </file>
@@ -505,9 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="91" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -980,13 +995,55 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4">
+        <v>45667</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A45:A49"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DC39BE-5F5D-4B1D-BE05-F5C3BCAFC300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEFB2C-D7FA-4EB0-9AF9-36E5D423E40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>tableau dashboard filters and joins  explination to team members.</t>
+  </si>
+  <si>
+    <t>tabelau small data, big data and tableau data types</t>
+  </si>
+  <si>
+    <t>project task completed</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,6 +1044,28 @@
         <v>50</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45671</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>45671</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaya sri\A_Project_related\Daily_Status_\Daily_Task_Status_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEFB2C-D7FA-4EB0-9AF9-36E5D423E40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02141BD8-AF96-4904-BB57-9D7D700CD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>project task completed</t>
+  </si>
+  <si>
+    <t>aws quicksight ifelse condition</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1070,14 @@
       </c>
       <c r="E51" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45671</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
